--- a/biology/Écologie/Indice_oligochètes/Indice_oligochètes.xlsx
+++ b/biology/Écologie/Indice_oligochètes/Indice_oligochètes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_oligoch%C3%A8tes</t>
+          <t>Indice_oligochètes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Indice oligochètes est un indice de qualité des sédiments : Méthodologie BIEF-Cariçaie d'après IOBS[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Indice oligochètes est un indice de qualité des sédiments : Méthodologie BIEF-Cariçaie d'après IOBS. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indice_oligoch%C3%A8tes</t>
+          <t>Indice_oligochètes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s’agit de prélever des oligochètes aquatiques dans les sédiments d’un cours d’eau[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit de prélever des oligochètes aquatiques dans les sédiments d’un cours d’eau.
 Il permet de suspecter des pollutions aux métaux lourds ou aux PCB, dans le cas où l’échantillon présente plus de 60 % de Tubificidae sans soies capillaires.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indice_oligoch%C3%A8tes</t>
+          <t>Indice_oligochètes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Terrain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la nature du sédiment dominant, le mode de prélèvement varie (Protocole BIEF-Cariçaie).
 On considère qu’une station mesure entre 100 et 150 pas et que l’intervalle entre les points de prélèvements est de 30 pas. Le prélèvement de sédiments vaseux se fait donc par carottage plutôt qu’au filet qui serait rapidement colmaté.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indice_oligoch%C3%A8tes</t>
+          <t>Indice_oligochètes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Laboratoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oligochètes sont extraits de l’échantillon par tamisage à 0,5 mm. Pour permettre leur identification sous microscope, un montage de 100 individus identifiables est effectué entre lame et lamelle dans un milieu de montage constitué d’un mélange à parts égales de glycérine et d’acide lactique pur.
 Les individus sont positionnés latéralement sur la lame de manière à pouvoir distinguer facilement les soies dorsales et les organes génitaux. Les oligochètes colorés sont identifiés à l’espèce à l’aide d’un microscope à des grossissements de 10 à 600 fois.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indice_oligoch%C3%A8tes</t>
+          <t>Indice_oligochètes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir défini la densité en oligochètes, l’indice IOBS est calculé de la façon suivante : IOBS = (10 x S)/T
 Avec :
